--- a/example_data/EPA/label_corrected/000100-01349-20150515_2018-12-07_184650.xlsx
+++ b/example_data/EPA/label_corrected/000100-01349-20150515_2018-12-07_184650.xlsx
@@ -875,7 +875,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Irrigation || Use Restrictions</t>
+          <t>use restrictions || irrigation</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Off Target Movement || 172_Sensitive_Areas</t>
+          <t>172_sensitive_areas || off target movement</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
